--- a/QHKH/BIEUMAUEXCEL/BM09CT.xlsx
+++ b/QHKH/BIEUMAUEXCEL/BM09CT.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\QHKH\QHKH\BIEUMAUEXCEL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0189B63-43C2-4843-A734-4DDD08AC1A54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8E0B9BC-D6FB-4408-B3A8-AC174E525341}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="14895" xr2:uid="{282F4766-5114-46B0-B433-2EEA91293C5C}"/>
+    <workbookView xWindow="0" yWindow="705" windowWidth="21600" windowHeight="14895" xr2:uid="{282F4766-5114-46B0-B433-2EEA91293C5C}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>STT</t>
   </si>
@@ -59,6 +59,9 @@
   </si>
   <si>
     <t>Hạng mục</t>
+  </si>
+  <si>
+    <t>BM09/CT</t>
   </si>
 </sst>
 </file>
@@ -226,7 +229,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -256,8 +259,20 @@
     <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -280,19 +295,13 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -612,7 +621,7 @@
   <dimension ref="A1:G42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -623,49 +632,51 @@
     <col min="4" max="4" width="11.42578125" customWidth="1"/>
     <col min="5" max="5" width="11.28515625" customWidth="1"/>
     <col min="6" max="6" width="12.140625" style="8" customWidth="1"/>
-    <col min="7" max="7" width="13.140625" style="8" customWidth="1"/>
+    <col min="7" max="7" width="41.140625" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:7" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-    </row>
-    <row r="2" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+    </row>
+    <row r="2" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="25" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="15"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="22" t="s">
+      <c r="D3" s="19"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="23" t="s">
+      <c r="G3" s="14" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="20"/>
-      <c r="B4" s="18"/>
+      <c r="A4" s="24"/>
+      <c r="B4" s="22"/>
       <c r="C4" s="7" t="s">
         <v>3</v>
       </c>
@@ -675,8 +686,8 @@
       <c r="E4" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="24"/>
-      <c r="G4" s="25"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="15"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="9"/>
@@ -685,7 +696,7 @@
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
       <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
+      <c r="G5" s="26"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="10"/>
